--- a/results.xlsx
+++ b/results.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k00287263\Desktop\compression\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K00287263.TUSSTUDENT\Documents\GitHub\linux-compression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C76869C-B032-43E2-B780-10CAF3E3A2E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E7D972-8AED-4DFC-AE44-0E0C579DD025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{BB74B2CE-2D4D-49B0-A80F-A5AA9F7C3EDB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{BB74B2CE-2D4D-49B0-A80F-A5AA9F7C3EDB}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,27 +34,66 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
-  <si>
-    <t>Original File Size</t>
-  </si>
-  <si>
-    <t>Compressed File Size</t>
-  </si>
-  <si>
-    <t>Compression Tool</t>
-  </si>
-  <si>
-    <t>bzip2</t>
-  </si>
-  <si>
-    <t>image_file.tiff</t>
-  </si>
-  <si>
-    <t>File</t>
-  </si>
-  <si>
-    <t>tar</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+  <si>
+    <t>File Type</t>
+  </si>
+  <si>
+    <t>Original Size (Bytes)</t>
+  </si>
+  <si>
+    <t>Compressed Size (Bytes)</t>
+  </si>
+  <si>
+    <t>Compression Ratio (CR)</t>
+  </si>
+  <si>
+    <t>Space Savings (SS)</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>PDF</t>
+  </si>
+  <si>
+    <t>Executable</t>
+  </si>
+  <si>
+    <t>TIFF Image</t>
+  </si>
+  <si>
+    <t>Archive Type</t>
+  </si>
+  <si>
+    <t>Total Original Size (Bytes)</t>
+  </si>
+  <si>
+    <t>Total Compressed Size (Bytes)</t>
+  </si>
+  <si>
+    <t>Tar archive, then xz compress (.tar.xz)</t>
+  </si>
+  <si>
+    <t>Compressed files, then tar archive (.tar)</t>
+  </si>
+  <si>
+    <t>7zip (LZMA compression, normal level) (.7z)</t>
+  </si>
+  <si>
+    <t>Executable files often contain repetitive binary data, making them reasonably compressible.</t>
+  </si>
+  <si>
+    <t>PDFs can vary in their compressibility depending on their contents. PDFs containing text tend to compress well, but this one contains images or other compressed data do not.</t>
+  </si>
+  <si>
+    <t>TIFF uses compression therefore there is not much more that can be compressed.</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>There was no benefit to  compressing the files as a group. Also we can see there is no particular benefit to one type of compression used here as they are within a percent of each other</t>
   </si>
 </sst>
 </file>
@@ -63,7 +102,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -98,19 +137,75 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="21">
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -128,26 +223,41 @@
         <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="169" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -163,22 +273,51 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{0DEA6D9A-5763-443B-A6EF-085A3FAB8241}" name="Table1" displayName="Table1" ref="A1:D3" totalsRowShown="0">
-  <autoFilter ref="A1:D3" xr:uid="{0DEA6D9A-5763-443B-A6EF-085A3FAB8241}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{2D8F33C3-1F74-4148-9104-2653ADE455ED}" name="Compression Tool"/>
-    <tableColumn id="2" xr3:uid="{03C426BB-4767-4D55-AF24-EEE4CC28C457}" name="File"/>
-    <tableColumn id="3" xr3:uid="{40D77277-B22E-4465-8113-858493803243}" name="Original File Size" dataDxfId="1" dataCellStyle="Comma"/>
-    <tableColumn id="4" xr3:uid="{650CD89A-526A-4E60-B474-F9D07DAEA153}" name="Compressed File Size" dataDxfId="0" dataCellStyle="Comma"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4E1CF4D9-45F5-4099-B942-913580406850}" name="FileTable" displayName="FileTable" ref="A1:F5" totalsRowCount="1" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A1:F4" xr:uid="{4E1CF4D9-45F5-4099-B942-913580406850}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{70BBC326-9E2B-4F42-913B-19170DA220B1}" name="File Type" totalsRowLabel="Total" dataDxfId="20" totalsRowDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{70631E1F-3543-49A1-9012-397E2E7C47E3}" name="Original Size (Bytes)" totalsRowFunction="sum" dataDxfId="19" totalsRowDxfId="12" dataCellStyle="Comma"/>
+    <tableColumn id="3" xr3:uid="{39D76D01-0CBD-4BEE-9CC1-7E1ED450A7A8}" name="Compressed Size (Bytes)" totalsRowFunction="sum" dataDxfId="3" totalsRowDxfId="11" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{50C4A1F1-C44C-41C2-A032-D847198F859F}" name="Compression Ratio (CR)" totalsRowFunction="custom" dataDxfId="2" totalsRowDxfId="10" dataCellStyle="Percent" totalsRowCellStyle="Percent">
+      <calculatedColumnFormula>FileTable[[#This Row],[Compressed Size (Bytes)]]/FileTable[[#This Row],[Original Size (Bytes)]]</calculatedColumnFormula>
+      <totalsRowFormula>FileTable[[#Totals],[Compressed Size (Bytes)]]/FileTable[[#Totals],[Original Size (Bytes)]]</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{01813E65-0C5E-437A-A32A-B31C0B61A432}" name="Space Savings (SS)" totalsRowFunction="custom" dataDxfId="0" totalsRowDxfId="9" dataCellStyle="Percent">
+      <calculatedColumnFormula>1-FileTable[[#This Row],[Compression Ratio (CR)]]</calculatedColumnFormula>
+      <totalsRowFormula>1-FileTable[[#Totals],[Compression Ratio (CR)]]</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{19B6ED77-11FC-4297-AA50-30C4EF3C062E}" name="Comments" totalsRowFunction="count" dataDxfId="1" totalsRowDxfId="8"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{8C56FF2B-B9B5-41FD-87C7-21EE6ECD2DF3}" name="Table3" displayName="Table3" ref="A8:F11" totalsRowShown="0" dataDxfId="15">
+  <autoFilter ref="A8:F11" xr:uid="{8C56FF2B-B9B5-41FD-87C7-21EE6ECD2DF3}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{BA79127B-02A3-4491-B38C-BC210C1F7A38}" name="Archive Type" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{829E1A51-BDD8-4919-B91E-67340BFBBFA5}" name="Total Original Size (Bytes)" dataDxfId="14" dataCellStyle="Comma">
+      <calculatedColumnFormula>SUM(FileTable[[#Totals],[Original Size (Bytes)]])</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{B56A2764-C01B-4CF0-AA4B-2B740BCEEB15}" name="Total Compressed Size (Bytes)" dataDxfId="7" dataCellStyle="Comma"/>
+    <tableColumn id="4" xr3:uid="{ACD1F823-B89B-4071-91BC-7BA8AC7F126D}" name="Compression Ratio (CR)" dataDxfId="6" dataCellStyle="Percent">
+      <calculatedColumnFormula>Table3[[#This Row],[Total Compressed Size (Bytes)]]/Table3[[#This Row],[Total Original Size (Bytes)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{9E3A4C5F-5EEA-4580-B7E2-FD4A092EC1CC}" name="Space Savings (SS)" dataDxfId="4" dataCellStyle="Percent">
+      <calculatedColumnFormula>1-Table3[[#This Row],[Compression Ratio (CR)]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{FC2B98A5-344E-4EF6-8592-CC112608C7C8}" name="Comments" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -216,7 +355,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -322,7 +461,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -464,72 +603,230 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{133BD96E-288D-4B45-950A-A810702E00E9}">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E073E2C-701D-4042-A488-708BDF9F6803}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19" customWidth="1"/>
-    <col min="2" max="2" width="17.42578125" customWidth="1"/>
-    <col min="3" max="3" width="17.85546875" customWidth="1"/>
-    <col min="4" max="4" width="21.85546875" customWidth="1"/>
+    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
+    <col min="3" max="3" width="29.7109375" customWidth="1"/>
+    <col min="4" max="4" width="23.85546875" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="46.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3">
+        <v>5296128</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1510748</v>
+      </c>
+      <c r="D2" s="5">
+        <f>FileTable[[#This Row],[Compressed Size (Bytes)]]/FileTable[[#This Row],[Original Size (Bytes)]]</f>
+        <v>0.28525519020688322</v>
+      </c>
+      <c r="E2" s="5">
+        <f>1-FileTable[[#This Row],[Compression Ratio (CR)]]</f>
+        <v>0.71474480979311683</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>12603504</v>
+      </c>
+      <c r="C3" s="3">
+        <v>798892</v>
+      </c>
+      <c r="D3" s="5">
+        <f>FileTable[[#This Row],[Compressed Size (Bytes)]]/FileTable[[#This Row],[Original Size (Bytes)]]</f>
+        <v>6.3386499500456384E-2</v>
+      </c>
+      <c r="E3" s="5">
+        <f>1-FileTable[[#This Row],[Compression Ratio (CR)]]</f>
+        <v>0.93661350049954362</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1081286</v>
+      </c>
+      <c r="C4" s="3">
+        <v>864688</v>
+      </c>
+      <c r="D4" s="5">
+        <f>FileTable[[#This Row],[Compressed Size (Bytes)]]/FileTable[[#This Row],[Original Size (Bytes)]]</f>
+        <v>0.79968481974241779</v>
+      </c>
+      <c r="E4" s="5">
+        <f>1-FileTable[[#This Row],[Compression Ratio (CR)]]</f>
+        <v>0.20031518025758221</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="4">
+        <f>SUBTOTAL(109,FileTable[Original Size (Bytes)])</f>
+        <v>18980918</v>
+      </c>
+      <c r="C5" s="4">
+        <f>SUBTOTAL(109,FileTable[Compressed Size (Bytes)])</f>
+        <v>3174328</v>
+      </c>
+      <c r="D5" s="5">
+        <f>FileTable[[#Totals],[Compressed Size (Bytes)]]/FileTable[[#Totals],[Original Size (Bytes)]]</f>
+        <v>0.16723785435456809</v>
+      </c>
+      <c r="E5" s="6">
+        <f>1-FileTable[[#Totals],[Compression Ratio (CR)]]</f>
+        <v>0.83276214564543194</v>
+      </c>
+      <c r="F5" s="1">
+        <f>SUBTOTAL(103,FileTable[Comments])</f>
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
-        <v>12603504</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1403108</v>
+      <c r="F8" t="s">
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="1">
-        <v>12603504</v>
-      </c>
-      <c r="D3" s="1"/>
+    <row r="9" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="3">
+        <f>SUM(FileTable[[#Totals],[Original Size (Bytes)]])</f>
+        <v>18980918</v>
+      </c>
+      <c r="C9" s="3">
+        <v>3175716</v>
+      </c>
+      <c r="D9" s="5">
+        <f>Table3[[#This Row],[Total Compressed Size (Bytes)]]/Table3[[#This Row],[Total Original Size (Bytes)]]</f>
+        <v>0.16731098042781703</v>
+      </c>
+      <c r="E9" s="5">
+        <f>1-Table3[[#This Row],[Compression Ratio (CR)]]</f>
+        <v>0.832689019572183</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3">
+        <f>SUM(FileTable[[#Totals],[Original Size (Bytes)]])</f>
+        <v>18980918</v>
+      </c>
+      <c r="C10" s="3">
+        <v>3184640</v>
+      </c>
+      <c r="D10" s="5">
+        <f>Table3[[#This Row],[Total Compressed Size (Bytes)]]/Table3[[#This Row],[Total Original Size (Bytes)]]</f>
+        <v>0.16778113682383539</v>
+      </c>
+      <c r="E10" s="5">
+        <f>1-Table3[[#This Row],[Compression Ratio (CR)]]</f>
+        <v>0.83221886317616467</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="3">
+        <f>SUM(FileTable[[#Totals],[Original Size (Bytes)]])</f>
+        <v>18980918</v>
+      </c>
+      <c r="C11" s="3">
+        <v>3083559</v>
+      </c>
+      <c r="D11" s="5">
+        <f>Table3[[#This Row],[Total Compressed Size (Bytes)]]/Table3[[#This Row],[Total Original Size (Bytes)]]</f>
+        <v>0.16245573580793088</v>
+      </c>
+      <c r="E11" s="5">
+        <f>1-Table3[[#This Row],[Compression Ratio (CR)]]</f>
+        <v>0.83754426419206918</v>
+      </c>
+      <c r="F11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>